--- a/cocurricular_competencies.xlsx
+++ b/cocurricular_competencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CC093-1E78-5E41-862E-1EC49B9A2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AEAE1-906E-2140-825E-78B8D26F2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="760" windowWidth="20800" windowHeight="21580" xr2:uid="{1CFB208A-0F52-DC46-8BE9-EBACDF921171}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>e@UBCV</t>
   </si>
@@ -605,7 +605,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,9 +657,7 @@
       <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/cocurricular_competencies.xlsx
+++ b/cocurricular_competencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AEAE1-906E-2140-825E-78B8D26F2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B560855-BFAA-454C-9123-A7F7C4D5A8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="760" windowWidth="20800" windowHeight="21580" xr2:uid="{1CFB208A-0F52-DC46-8BE9-EBACDF921171}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>Planning and project managing skills</t>
   </si>
   <si>
-    <t>testing, process mapping, roadmap, project manage, etc.</t>
-  </si>
-  <si>
     <t>Networking skills</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>uncertainty, ambiguity, navigation</t>
+  </si>
+  <si>
+    <t>testing, process mapping, roadmap, project manage</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,63 +776,63 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/cocurricular_competencies.xlsx
+++ b/cocurricular_competencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B560855-BFAA-454C-9123-A7F7C4D5A8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA0C2E-04C6-6C45-846C-4BFF13CFA22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="760" windowWidth="20800" windowHeight="21580" xr2:uid="{1CFB208A-0F52-DC46-8BE9-EBACDF921171}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Entrepreneur types, traits, key behaviours</t>
   </si>
   <si>
-    <t xml:space="preserve">Opportunity Recognition </t>
-  </si>
-  <si>
     <t>opportunity identification, opportunity recognition, need finding, problem identification</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Legal Issues</t>
   </si>
   <si>
-    <t>legal matters, contracts, intellectual property, copyright,</t>
-  </si>
-  <si>
     <t>Financial Decision Making</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>risk-tolerant, open, take initiative, enterprising, committed, traits</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterprising Mindset </t>
-  </si>
-  <si>
     <t>curiosity, self-motivated, experimental, confident, competitive, pro-active</t>
   </si>
   <si>
@@ -213,6 +204,15 @@
   </si>
   <si>
     <t>testing, process mapping, roadmap, project manage</t>
+  </si>
+  <si>
+    <t>Opportunity Recognition</t>
+  </si>
+  <si>
+    <t>Enterprising Mindset</t>
+  </si>
+  <si>
+    <t>legal matters, contracts, intellectual property, copyright</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -669,170 +669,170 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/cocurricular_competencies.xlsx
+++ b/cocurricular_competencies.xlsx
@@ -8,35 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rad/Desktop/UNi/proj/EER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA0C2E-04C6-6C45-846C-4BFF13CFA22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD88404-3D47-414A-A5EF-2DA4FAA338E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="760" windowWidth="20800" windowHeight="21580" xr2:uid="{1CFB208A-0F52-DC46-8BE9-EBACDF921171}"/>
+    <workbookView xWindow="25160" yWindow="760" windowWidth="42000" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+  <si>
+    <t>Comptency</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
   <si>
     <t>e@UBCV</t>
   </si>
@@ -74,152 +66,146 @@
     <t>Startup Pitch Competition event: UBC SOAR</t>
   </si>
   <si>
+    <t>Entrepreneurship and Entrepreneurial Mindset</t>
+  </si>
+  <si>
+    <t>Entrepreneur types, traits, key behaviours</t>
+  </si>
+  <si>
+    <t>Opportunity Recognition</t>
+  </si>
+  <si>
+    <t>opportunity identification, opportunity recognition, need finding, problem identification</t>
+  </si>
+  <si>
+    <t>Market Research</t>
+  </si>
+  <si>
+    <t>market research, primary research, secondary research</t>
+  </si>
+  <si>
+    <t>Product Development</t>
+  </si>
+  <si>
+    <t>product research, prototype, MVP, product, service development</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>marketing, channel marketing, sales, go to market strategy</t>
+  </si>
+  <si>
+    <t>Business Modeling</t>
+  </si>
+  <si>
+    <t>business model, business model canvas, go to market plan, venture forming</t>
+  </si>
+  <si>
+    <t>Managerial Decision Making</t>
+  </si>
+  <si>
+    <t>group, project, team, management, project management, lead, decision-making</t>
+  </si>
+  <si>
+    <t>Legal Issues</t>
+  </si>
+  <si>
+    <t>legal matters, contracts, intellectual property, copyright</t>
+  </si>
+  <si>
+    <t>Financial Decision Making</t>
+  </si>
+  <si>
+    <t>financial, venture capital, financial modelling, investment/investing, revenue, funding</t>
+  </si>
+  <si>
+    <t>Observational skills</t>
+  </si>
+  <si>
+    <t>observing, questioning, seeing, sensing</t>
+  </si>
+  <si>
+    <t>Creativity skills</t>
+  </si>
+  <si>
+    <t>associating, creative thinking, innovative thinking, idea generation, prototyping, experimenting</t>
+  </si>
+  <si>
+    <t>Problem solving skills</t>
+  </si>
+  <si>
+    <t>problem solving, problem identification, opportunity identification</t>
+  </si>
+  <si>
+    <t>Communication skills</t>
+  </si>
+  <si>
+    <t>presentation, present, pitch, communication, visual thinking, sketch, map, write, design, storytelling</t>
+  </si>
+  <si>
+    <t>Decision-making skills</t>
+  </si>
+  <si>
+    <t>analytical thinking, critical thinking, assess, evaluate</t>
+  </si>
+  <si>
+    <t>Planning and project managing skills</t>
+  </si>
+  <si>
+    <t>testing, process mapping, roadmap, project manage</t>
+  </si>
+  <si>
+    <t>Networking skills</t>
+  </si>
+  <si>
+    <t>team forming, team building, networking</t>
+  </si>
+  <si>
+    <t>Negotiating skills</t>
+  </si>
+  <si>
+    <t>team management, persuasive, empathy, stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Self-Aware</t>
+  </si>
+  <si>
+    <t>risk-tolerant, open, take initiative, enterprising, committed, traits</t>
+  </si>
+  <si>
+    <t>Enterprising Mindset</t>
+  </si>
+  <si>
+    <t>curiosity, self-motivated, experimental, confident, competitive, pro-active</t>
+  </si>
+  <si>
+    <t>Self-Directed</t>
+  </si>
+  <si>
+    <t>optional readings, supplemental activities, canvas discussions, goal oriented</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>networking, empathy, group management</t>
+  </si>
+  <si>
+    <t>Uncertainty Management</t>
+  </si>
+  <si>
+    <t>uncertainty, ambiguity, navigation</t>
+  </si>
+  <si>
     <t>LaunchWeek</t>
-  </si>
-  <si>
-    <t>Entrepreneurship and Entrepreneurial Mindset</t>
-  </si>
-  <si>
-    <t>Entrepreneur types, traits, key behaviours</t>
-  </si>
-  <si>
-    <t>opportunity identification, opportunity recognition, need finding, problem identification</t>
-  </si>
-  <si>
-    <t>Market Research</t>
-  </si>
-  <si>
-    <t>market research, primary research, secondary research</t>
-  </si>
-  <si>
-    <t>Product Development</t>
-  </si>
-  <si>
-    <t>product research, prototype, MVP, product, service development</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>marketing, channel marketing, sales, go to market strategy</t>
-  </si>
-  <si>
-    <t>Business Modeling</t>
-  </si>
-  <si>
-    <t>business model, business model canvas, go to market plan, venture forming</t>
-  </si>
-  <si>
-    <t>Managerial Decision Making</t>
-  </si>
-  <si>
-    <t>group, project, team, management, project management, lead, decision-making</t>
-  </si>
-  <si>
-    <t>Legal Issues</t>
-  </si>
-  <si>
-    <t>Financial Decision Making</t>
-  </si>
-  <si>
-    <t>financial, venture capital, financial modelling, investment/investing, revenue, funding</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>Comptency</t>
-  </si>
-  <si>
-    <t>Observational skills</t>
-  </si>
-  <si>
-    <t>observing, questioning, seeing, sensing</t>
-  </si>
-  <si>
-    <t>Creativity skills</t>
-  </si>
-  <si>
-    <t>associating, creative thinking, innovative thinking, idea generation, prototyping, experimenting</t>
-  </si>
-  <si>
-    <t>Problem solving skills</t>
-  </si>
-  <si>
-    <t>problem solving, problem identification, opportunity identification</t>
-  </si>
-  <si>
-    <t>Communication skills</t>
-  </si>
-  <si>
-    <t>presentation, present, pitch, communication, visual thinking, sketch, map, write, design, storytelling</t>
-  </si>
-  <si>
-    <t>Decision-making skills</t>
-  </si>
-  <si>
-    <t>analytical thinking, critical thinking, assess, evaluate</t>
-  </si>
-  <si>
-    <t>Planning and project managing skills</t>
-  </si>
-  <si>
-    <t>Networking skills</t>
-  </si>
-  <si>
-    <t>team forming, team building, networking</t>
-  </si>
-  <si>
-    <t>Negotiating skills</t>
-  </si>
-  <si>
-    <t>team management, persuasive, empathy, stakeholder engagement</t>
-  </si>
-  <si>
-    <t>Self-Aware</t>
-  </si>
-  <si>
-    <t>risk-tolerant, open, take initiative, enterprising, committed, traits</t>
-  </si>
-  <si>
-    <t>curiosity, self-motivated, experimental, confident, competitive, pro-active</t>
-  </si>
-  <si>
-    <t>Self-Directed</t>
-  </si>
-  <si>
-    <t>optional readings, supplemental activities, canvas discussions, goal oriented</t>
-  </si>
-  <si>
-    <t>Teamwork</t>
-  </si>
-  <si>
-    <t>networking, empathy, group management</t>
-  </si>
-  <si>
-    <t>Uncertainty Management</t>
-  </si>
-  <si>
-    <t>uncertainty, ambiguity, navigation</t>
-  </si>
-  <si>
-    <t>testing, process mapping, roadmap, project manage</t>
-  </si>
-  <si>
-    <t>Opportunity Recognition</t>
-  </si>
-  <si>
-    <t>Enterprising Mindset</t>
-  </si>
-  <si>
-    <t>legal matters, contracts, intellectual property, copyright</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +234,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -269,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,22 +268,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1519BD7-0D5C-6145-BDC0-E93FFC371C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,236 +657,1036 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:N1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{FC35FFFF-0FD4-8A41-A2EA-938457E44701}"/>
-    <hyperlink ref="D1" r:id="rId2" xr:uid="{0305B318-84A2-294A-AE90-F192864822B0}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C9F75B-2F47-0246-888C-1CA4EC4163AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -856,74 +1697,1101 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{1E9FFDE5-F4C8-6946-AB43-C95BBE1ECCEB}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{4B0890AF-3964-0246-9CCE-D5ABEB2E0058}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>